--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,734 +453,1436 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44970</v>
+        <v>44976</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B5" t="n">
         <v>31</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B10" t="n">
         <v>21</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B11" t="n">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B12" t="n">
         <v>41</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B14" t="n">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B17" t="n">
         <v>24</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B18" t="n">
         <v>32</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B19" t="n">
         <v>36</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B20" t="n">
         <v>35</v>
       </c>
-      <c r="C20" t="n">
-        <v>60</v>
+      <c r="C20" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" t="n">
-        <v>108</v>
+      <c r="C21" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B22" t="n">
         <v>43</v>
       </c>
-      <c r="C22" t="n">
-        <v>12</v>
+      <c r="C22" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
       </c>
-      <c r="C23" t="n">
-        <v>60</v>
+      <c r="C23" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B24" t="n">
         <v>24</v>
       </c>
-      <c r="C24" t="n">
-        <v>120</v>
+      <c r="C24" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="n">
         <v>21</v>
       </c>
-      <c r="C25" t="n">
-        <v>80</v>
+      <c r="C25" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>8</v>
+      <c r="C26" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
-        <v>4</v>
+      <c r="C27" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="n">
         <v>29</v>
       </c>
-      <c r="C28" t="n">
-        <v>8</v>
+      <c r="C28" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="n">
         <v>20</v>
       </c>
-      <c r="C29" t="n">
-        <v>24</v>
+      <c r="C29" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="n">
         <v>11</v>
       </c>
-      <c r="C30" t="n">
-        <v>192</v>
+      <c r="C30" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B32" t="n">
         <v>20</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="B33" t="n">
-        <v>38</v>
-      </c>
-      <c r="C33" t="n">
-        <v>16</v>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B34" t="n">
         <v>19</v>
       </c>
-      <c r="C34" t="n">
-        <v>16</v>
+      <c r="C34" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="B35" t="n">
         <v>19</v>
       </c>
-      <c r="C35" t="n">
-        <v>24</v>
+      <c r="C35" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
-      </c>
-      <c r="C36" t="n">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B37" t="n">
-        <v>21</v>
-      </c>
-      <c r="C37" t="n">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
-      </c>
-      <c r="C38" t="n">
-        <v>128</v>
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B39" t="n">
-        <v>29</v>
-      </c>
-      <c r="C39" t="n">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B41" t="n">
-        <v>36</v>
-      </c>
-      <c r="C41" t="n">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B43" t="n">
-        <v>26</v>
-      </c>
-      <c r="C43" t="n">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
-      </c>
-      <c r="C44" t="n">
+        <v>26</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B45" t="n">
-        <v>18</v>
-      </c>
-      <c r="C45" t="n">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45502</v>
+        <v>45501</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
-      </c>
-      <c r="C46" t="n">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45509</v>
+        <v>45508</v>
       </c>
       <c r="B47" t="n">
-        <v>22</v>
-      </c>
-      <c r="C47" t="n">
-        <v>264</v>
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
-      </c>
-      <c r="C48" t="n">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
-      </c>
-      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
-      </c>
-      <c r="C50" t="n">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>24</v>
+      <c r="C53" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45558</v>
+        <v>45557</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
-      </c>
-      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" t="n">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="B57" t="n">
-        <v>26</v>
-      </c>
-      <c r="C57" t="n">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
-      </c>
-      <c r="C58" t="n">
-        <v>640</v>
+        <v>26</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
-      </c>
-      <c r="C59" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
-      </c>
-      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
-      </c>
-      <c r="C61" t="n">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
-      </c>
-      <c r="C62" t="n">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B63" t="n">
-        <v>37</v>
-      </c>
-      <c r="C63" t="n">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
-      </c>
-      <c r="C64" t="n">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B65" t="n">
-        <v>37</v>
-      </c>
-      <c r="C65" t="n">
+        <v>33</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
-      </c>
-      <c r="C66" t="n">
+        <v>37</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B68" t="n">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B67" t="n">
-        <v>18</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B3" t="n">
+        <v>108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-88.88888888888889</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B6" t="n">
+        <v>120</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B12" t="n">
+        <v>192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-91.66666666666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>433.3333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B19" t="n">
+        <v>48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+      <c r="C21" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B23" t="n">
+        <v>128</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B26" t="n">
+        <v>264</v>
+      </c>
+      <c r="C26" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-81.81818181818181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B30" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B31" t="n">
+        <v>24</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B33" t="n">
+        <v>640</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-92.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72.60606060606061</v>
+      </c>
+      <c r="C2" t="n">
+        <v>640</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>119.810606060606</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,950 +453,733 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>11</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>20</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45424</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>19</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45431</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45438</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45445</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45452</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C39" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45459</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45466</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45473</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>36</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45480</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>22</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C43" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45487</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D44" t="n">
+        <v>29</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45494</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45501</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C46" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45508</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45515</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45522</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45529</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45536</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45543</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45550</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45557</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45564</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D55" t="n">
+        <v>19</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45571</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>19</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45578</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45585</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>26</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C58" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45592</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45599</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45606</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C61" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45613</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D62" t="n">
+        <v>48</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45620</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>48</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D63" t="n">
+        <v>37</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45627</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D64" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45634</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D65" t="n">
+        <v>37</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45641</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>37</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45648</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B68" t="n">
         <v>18</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,7 +1194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,10 +1221,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1449,153 +1232,153 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>-85.71428571428572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>-88.88888888888889</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>116.6666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>-42.30769230769231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-33.33333333333334</v>
+        <v>-73.33333333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="C8" t="n">
-        <v>-90</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>-50</v>
+        <v>-89.47368421052632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>-11.76470588235294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C12" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-91.66666666666666</v>
+        <v>-88.88888888888889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C16" t="n">
         <v>-33.33333333333334</v>
@@ -1603,199 +1386,298 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>433.3333333333333</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>-62.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-83.33333333333334</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>-90</v>
+        <v>-91.66666666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45495</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>-37.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45502</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>-60</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>725</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45516</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C27" t="n">
-        <v>-81.81818181818181</v>
+        <v>433.3333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
-        <v>-66.66666666666667</v>
+        <v>-62.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45537</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>-83.33333333333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>-25</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45572</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45579</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.33333333333334</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45586</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="C33" t="n">
-        <v>3900</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45607</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>264</v>
+      </c>
+      <c r="C35" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B36" t="n">
         <v>48</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
+        <v>-81.81818181818181</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32</v>
+      </c>
+      <c r="C38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>640</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48</v>
+      </c>
+      <c r="C43" t="n">
         <v>-92.5</v>
       </c>
     </row>
@@ -1842,10 +1724,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2396</v>
+        <v>2988</v>
       </c>
       <c r="B2" t="n">
-        <v>72.60606060606061</v>
+        <v>71.14285714285714</v>
       </c>
       <c r="C2" t="n">
         <v>640</v>
@@ -1882,7 +1764,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>119.810606060606</v>
+        <v>103.4285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,6 +979,14 @@
       </c>
       <c r="B67" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -28019,7 +28027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31011,7 +31019,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
@@ -31022,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -31033,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
@@ -31044,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275">
@@ -31264,6 +31272,17 @@
         <v>18</v>
       </c>
       <c r="C294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B295" t="n">
+        <v>22</v>
+      </c>
+      <c r="C295" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,6 +987,14 @@
       </c>
       <c r="B68" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -28027,7 +28035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29941,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -29952,7 +29960,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -29963,7 +29971,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -29974,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -29996,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
@@ -30084,7 +30092,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -30095,7 +30103,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -30238,7 +30246,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -30249,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -30260,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -30271,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
@@ -30337,7 +30345,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -30381,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -30403,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216">
@@ -30414,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
@@ -30425,7 +30433,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -30458,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
@@ -30469,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -30502,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
@@ -30513,7 +30521,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
@@ -30535,7 +30543,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
@@ -30546,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
@@ -30678,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241">
@@ -30689,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242">
@@ -30700,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243">
@@ -30711,7 +30719,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244">
@@ -30722,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -30755,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -30777,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -31019,7 +31027,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -31030,7 +31038,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
@@ -31107,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280">
@@ -31118,7 +31126,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>308</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -31283,6 +31291,17 @@
         <v>22</v>
       </c>
       <c r="C295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B296" t="n">
+        <v>20</v>
+      </c>
+      <c r="C296" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,14 @@
       </c>
       <c r="B69" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
@@ -28035,7 +28043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31302,6 +31310,17 @@
         <v>20</v>
       </c>
       <c r="C296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-12</v>
+      </c>
+      <c r="C297" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVX2FQ_sales_po_comparison.xlsx
@@ -1002,7 +1002,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>-12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -31318,7 +31318,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B297" t="n">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
